--- a/formal/UNAIDS/results/results.xlsx
+++ b/formal/UNAIDS/results/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800"/>
+    <workbookView xWindow="420" yWindow="800" windowWidth="43920" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="90-90-90" sheetId="1" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>DRC</t>
   </si>
   <si>
-    <t>max_error = 0.8, min_number = 500, treat all from 2016</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>max_error = 0.06, min_number = 1000</t>
+  </si>
+  <si>
+    <t>max_error = 0.15, min_number = 1000</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1023,39 +1025,39 @@
         <v>49</v>
       </c>
       <c r="B6" s="83">
+        <v>0.59</v>
+      </c>
+      <c r="C6" s="83">
+        <v>0.74</v>
+      </c>
+      <c r="D6" s="83">
         <v>0.39</v>
       </c>
-      <c r="C6" s="83">
-        <v>0.81</v>
-      </c>
-      <c r="D6" s="83">
-        <v>0.9</v>
-      </c>
       <c r="E6" s="83">
-        <v>0.18</v>
+        <v>0.49</v>
       </c>
       <c r="F6" s="83">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="G6" s="83">
-        <v>0.82</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H6" s="83">
-        <v>0.59</v>
+        <v>0.67</v>
       </c>
       <c r="I6" s="83">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="J6" s="83">
-        <v>0.99</v>
+        <v>0.7</v>
       </c>
       <c r="K6" s="82" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="83">
         <v>0.77</v>
@@ -1090,7 +1092,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="83">
         <v>0.78</v>
@@ -1120,12 +1122,12 @@
         <v>0.99</v>
       </c>
       <c r="K8" s="82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="83">
         <v>0.26</v>
@@ -1155,12 +1157,12 @@
         <v>0.99</v>
       </c>
       <c r="K9" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="83">
         <v>0.73</v>
@@ -1190,12 +1192,12 @@
         <v>0.99</v>
       </c>
       <c r="K10" s="82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="83">
         <v>0.78</v>
@@ -1225,12 +1227,12 @@
         <v>0.99</v>
       </c>
       <c r="K11" s="82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="83">
         <v>0.87</v>
@@ -1265,7 +1267,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="83">
         <v>0.6</v>
@@ -1295,12 +1297,12 @@
         <v>0.99</v>
       </c>
       <c r="K13" s="82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="83">
         <v>0.8</v>
@@ -1330,12 +1332,12 @@
         <v>0.99</v>
       </c>
       <c r="K14" s="82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="83">
         <v>0.73</v>
@@ -1365,12 +1367,12 @@
         <v>0.99</v>
       </c>
       <c r="K15" s="82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="83">
         <v>0.45</v>
@@ -1400,12 +1402,12 @@
         <v>0.99</v>
       </c>
       <c r="K16" s="82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="83">
         <v>0.24</v>
@@ -1435,12 +1437,12 @@
         <v>0.99</v>
       </c>
       <c r="K17" s="82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="83">
         <v>0.54</v>
@@ -1470,12 +1472,12 @@
         <v>0.98</v>
       </c>
       <c r="K18" s="82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="83">
         <v>0.84</v>
@@ -1505,12 +1507,12 @@
         <v>0.99</v>
       </c>
       <c r="K19" s="82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="83">
         <v>0.84</v>
@@ -1540,12 +1542,12 @@
         <v>0.99</v>
       </c>
       <c r="K20" s="82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="83">
         <v>0.91</v>
@@ -1575,12 +1577,12 @@
         <v>0.99</v>
       </c>
       <c r="K21" s="82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="83">
         <v>0.8</v>
@@ -1610,12 +1612,12 @@
         <v>0.99</v>
       </c>
       <c r="K22" s="82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="83">
         <v>0.81</v>
@@ -1650,7 +1652,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="83">
         <v>0.74</v>
@@ -1680,12 +1682,12 @@
         <v>0.99</v>
       </c>
       <c r="K24" s="82" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="83">
         <v>0.86</v>
@@ -1715,7 +1717,7 @@
         <v>0.99</v>
       </c>
       <c r="K25" s="82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:P6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2004,54 +2008,54 @@
         <v>49</v>
       </c>
       <c r="B6" s="83">
-        <v>384078</v>
+        <v>393501</v>
       </c>
       <c r="C6" s="83">
-        <v>109787</v>
+        <v>165837</v>
       </c>
       <c r="D6" s="83">
-        <v>75683</v>
+        <v>98597</v>
       </c>
       <c r="E6" s="83">
-        <v>75208</v>
+        <v>97990</v>
       </c>
       <c r="F6" s="83">
-        <v>67083</v>
+        <v>36986</v>
       </c>
       <c r="G6" s="83">
-        <v>268848</v>
+        <v>348228</v>
       </c>
       <c r="H6" s="83">
-        <v>67531</v>
+        <v>128922</v>
       </c>
       <c r="I6" s="83">
-        <v>34768</v>
+        <v>75035</v>
       </c>
       <c r="J6" s="83">
-        <v>34506</v>
+        <v>74501</v>
       </c>
       <c r="K6" s="83">
-        <v>32336</v>
+        <v>6021</v>
       </c>
       <c r="L6" s="83">
-        <v>545413</v>
+        <v>444139</v>
       </c>
       <c r="M6" s="83">
-        <v>152345</v>
+        <v>200101</v>
       </c>
       <c r="N6" s="83">
-        <v>114508</v>
+        <v>120024</v>
       </c>
       <c r="O6" s="83">
-        <v>113992</v>
+        <v>119082</v>
       </c>
       <c r="P6" s="83">
-        <v>99692</v>
+        <v>74557</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="83">
         <v>708464</v>
@@ -2101,7 +2105,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="83">
         <v>128069</v>
@@ -2151,7 +2155,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="83">
         <v>690930</v>
@@ -2201,7 +2205,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="83">
         <v>31335</v>
@@ -2251,7 +2255,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="83">
         <v>1517155</v>
@@ -2301,7 +2305,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="83">
         <v>993890</v>
@@ -2351,7 +2355,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="83">
         <v>24356</v>
@@ -2401,7 +2405,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="83">
         <v>1671661</v>
@@ -2451,7 +2455,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="83">
         <v>228165</v>
@@ -2501,7 +2505,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="83">
         <v>3472103</v>
@@ -2551,7 +2555,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="83">
         <v>116688</v>
@@ -2601,7 +2605,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="83">
         <v>62728</v>
@@ -2651,7 +2655,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="83">
         <v>6691961</v>
@@ -2701,7 +2705,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="83">
         <v>1445440</v>
@@ -2751,7 +2755,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="83">
         <v>466323</v>
@@ -2801,7 +2805,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="83">
         <v>1439346</v>
@@ -2851,7 +2855,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="83">
         <v>238757</v>
@@ -2901,7 +2905,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="83">
         <v>263170</v>
@@ -2951,7 +2955,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="83">
         <v>1393871</v>
@@ -3008,7 +3012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:P6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3285,54 +3291,54 @@
         <v>49</v>
       </c>
       <c r="B6" s="83">
-        <v>378231</v>
+        <v>353322</v>
       </c>
       <c r="C6" s="83">
-        <v>142236</v>
+        <v>206972</v>
       </c>
       <c r="D6" s="83">
-        <v>118183</v>
+        <v>153230</v>
       </c>
       <c r="E6" s="83">
-        <v>118062</v>
+        <v>152890</v>
       </c>
       <c r="F6" s="83">
-        <v>105801</v>
+        <v>61210</v>
       </c>
       <c r="G6" s="83">
-        <v>271796</v>
+        <v>305348</v>
       </c>
       <c r="H6" s="83">
-        <v>71052</v>
+        <v>166117</v>
       </c>
       <c r="I6" s="83">
-        <v>40881</v>
+        <v>116445</v>
       </c>
       <c r="J6" s="83">
-        <v>40771</v>
+        <v>115914</v>
       </c>
       <c r="K6" s="83">
-        <v>37680</v>
+        <v>9767</v>
       </c>
       <c r="L6" s="83">
-        <v>503646</v>
+        <v>401548</v>
       </c>
       <c r="M6" s="83">
-        <v>217638</v>
+        <v>245245</v>
       </c>
       <c r="N6" s="83">
-        <v>194287</v>
+        <v>190544</v>
       </c>
       <c r="O6" s="83">
-        <v>194180</v>
+        <v>190204</v>
       </c>
       <c r="P6" s="83">
-        <v>171049</v>
+        <v>123451</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="83">
         <v>726150</v>
@@ -3382,7 +3388,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="83">
         <v>108083</v>
@@ -3432,7 +3438,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="83">
         <v>1008670</v>
@@ -3482,7 +3488,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="83">
         <v>33560</v>
@@ -3532,7 +3538,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="83">
         <v>1745987</v>
@@ -3582,7 +3588,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="83">
         <v>1008791</v>
@@ -3632,7 +3638,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="83">
         <v>26657</v>
@@ -3682,7 +3688,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="83">
         <v>1867209</v>
@@ -3732,7 +3738,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="83">
         <v>241337</v>
@@ -3782,7 +3788,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="83">
         <v>4389787</v>
@@ -3832,7 +3838,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="83">
         <v>268183</v>
@@ -3882,7 +3888,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="83">
         <v>197234</v>
@@ -3932,7 +3938,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="83">
         <v>6724181</v>
@@ -3982,7 +3988,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="83">
         <v>1518386</v>
@@ -4032,7 +4038,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="83">
         <v>415405</v>
@@ -4082,7 +4088,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="83">
         <v>1575890</v>
@@ -4132,7 +4138,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="83">
         <v>275250</v>
@@ -4182,7 +4188,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="83">
         <v>282475</v>
@@ -4232,7 +4238,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="83">
         <v>1515721</v>
@@ -4289,7 +4295,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:P6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4552,54 +4560,54 @@
         <v>49</v>
       </c>
       <c r="B6" s="83">
-        <v>12294</v>
+        <v>17897</v>
       </c>
       <c r="C6" s="83">
-        <v>13619</v>
+        <v>19976</v>
       </c>
       <c r="D6" s="83">
-        <v>15701</v>
+        <v>21315</v>
       </c>
       <c r="E6" s="83">
-        <v>17191</v>
+        <v>21820</v>
       </c>
       <c r="F6" s="83">
-        <v>18360</v>
+        <v>22079</v>
       </c>
       <c r="G6" s="83">
-        <v>8535</v>
+        <v>14633</v>
       </c>
       <c r="H6" s="83">
-        <v>9723</v>
+        <v>15515</v>
       </c>
       <c r="I6" s="83">
-        <v>10643</v>
+        <v>16613</v>
       </c>
       <c r="J6" s="83">
-        <v>11256</v>
+        <v>17092</v>
       </c>
       <c r="K6" s="83">
-        <v>11270</v>
+        <v>17506</v>
       </c>
       <c r="L6" s="83">
-        <v>16405</v>
+        <v>21769</v>
       </c>
       <c r="M6" s="83">
-        <v>19689</v>
+        <v>25113</v>
       </c>
       <c r="N6" s="83">
-        <v>23889</v>
+        <v>26309</v>
       </c>
       <c r="O6" s="83">
-        <v>26711</v>
+        <v>26651</v>
       </c>
       <c r="P6" s="83">
-        <v>29956</v>
+        <v>26557</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="83">
         <v>23940</v>
@@ -4649,7 +4657,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="83">
         <v>4869</v>
@@ -4699,7 +4707,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="83">
         <v>20625</v>
@@ -4749,7 +4757,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="83">
         <v>1100</v>
@@ -4799,7 +4807,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="83">
         <v>37642</v>
@@ -4849,7 +4857,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="83">
         <v>23504</v>
@@ -4899,7 +4907,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="83">
         <v>695</v>
@@ -4949,7 +4957,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="83">
         <v>27481</v>
@@ -4999,7 +5007,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="83">
         <v>7889</v>
@@ -5049,7 +5057,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="83">
         <v>97971</v>
@@ -5099,7 +5107,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="83">
         <v>2328</v>
@@ -5149,7 +5157,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="83">
         <v>757</v>
@@ -5199,7 +5207,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="83">
         <v>269106</v>
@@ -5249,7 +5257,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="83">
         <v>26700</v>
@@ -5299,7 +5307,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="83">
         <v>20752</v>
@@ -5349,7 +5357,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="83">
         <v>58569</v>
@@ -5399,7 +5407,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="83">
         <v>5172</v>
@@ -5449,7 +5457,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="83">
         <v>10218</v>
@@ -5499,7 +5507,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="83">
         <v>32734</v>
@@ -5556,7 +5564,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5819,54 +5829,54 @@
         <v>49</v>
       </c>
       <c r="B6" s="83">
-        <v>15422</v>
+        <v>15107</v>
       </c>
       <c r="C6" s="83">
-        <v>16057</v>
+        <v>15164</v>
       </c>
       <c r="D6" s="83">
-        <v>16463</v>
+        <v>15060</v>
       </c>
       <c r="E6" s="83">
-        <v>16718</v>
+        <v>14903</v>
       </c>
       <c r="F6" s="83">
-        <v>16835</v>
+        <v>14710</v>
       </c>
       <c r="G6" s="83">
-        <v>9449</v>
+        <v>9468</v>
       </c>
       <c r="H6" s="83">
-        <v>9538</v>
+        <v>9323</v>
       </c>
       <c r="I6" s="83">
-        <v>10017</v>
+        <v>9070</v>
       </c>
       <c r="J6" s="83">
-        <v>9822</v>
+        <v>8794</v>
       </c>
       <c r="K6" s="83">
-        <v>9446</v>
+        <v>8503</v>
       </c>
       <c r="L6" s="83">
-        <v>21355</v>
+        <v>20641</v>
       </c>
       <c r="M6" s="83">
-        <v>22616</v>
+        <v>20868</v>
       </c>
       <c r="N6" s="83">
-        <v>23764</v>
+        <v>20809</v>
       </c>
       <c r="O6" s="83">
-        <v>24091</v>
+        <v>20951</v>
       </c>
       <c r="P6" s="83">
-        <v>25695</v>
+        <v>21246</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="83">
         <v>29677</v>
@@ -5916,7 +5926,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="83">
         <v>1202</v>
@@ -5966,7 +5976,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="83">
         <v>78191</v>
@@ -6016,7 +6026,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="83">
         <v>1641</v>
@@ -6066,7 +6076,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="83">
         <v>89532</v>
@@ -6116,7 +6126,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="83">
         <v>33029</v>
@@ -6166,7 +6176,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="83">
         <v>1296</v>
@@ -6216,7 +6226,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="83">
         <v>83959</v>
@@ -6266,7 +6276,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="83">
         <v>11536</v>
@@ -6316,7 +6326,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="82" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="83">
         <v>283713</v>
@@ -6366,7 +6376,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="83">
         <v>23354</v>
@@ -6416,7 +6426,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="82" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="83">
         <v>16814</v>
@@ -6466,7 +6476,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="83">
         <v>269492</v>
@@ -6516,7 +6526,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="83">
         <v>53769</v>
@@ -6566,7 +6576,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="82" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="83">
         <v>6569</v>
@@ -6616,7 +6626,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="83">
         <v>84528</v>
@@ -6666,7 +6676,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="83">
         <v>15398</v>
@@ -6716,7 +6726,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="83">
         <v>13739</v>
@@ -6766,7 +6776,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="83">
         <v>65240</v>
